--- a/ITI/FAIS/StructureDefinition-IHE.FAIS.CoverageEligibilityRequest.xlsx
+++ b/ITI/FAIS/StructureDefinition-IHE.FAIS.CoverageEligibilityRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="358">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T10:12:51-05:00</t>
+    <t>2024-11-13T10:59:36-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -428,336 +428,360 @@
     <t>CoverageEligibilityRequest.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.extension:statusReason</t>
+  </si>
+  <si>
+    <t>statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://profiles.ihe.net/ITI/FAIS/StructureDefinition/request-statusReason}
+</t>
+  </si>
+  <si>
+    <t>Request Status Reason</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the resource.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for coverage eligiblity request</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this coverage eligiblity request.</t>
+  </si>
+  <si>
+    <t>Allows coverage eligibility requests to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.status</t>
+  </si>
+  <si>
+    <t>active | cancelled | draft | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the resource instance.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the resource instance.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Desired processing priority</t>
+  </si>
+  <si>
+    <t>When the requestor expects the processor to complete processing.</t>
+  </si>
+  <si>
+    <t>Needed to advise the prossesor on the urgency of the request.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The timeliness with which processing is required: STAT, normal, Deferred.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/process-priority</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.purpose</t>
+  </si>
+  <si>
+    <t>auth-requirements | benefits | discovery | validation</t>
+  </si>
+  <si>
+    <t>Code to specify whether requesting: prior authorization requirements for some service categories or billing codes; benefits for coverages specified or discovered; discovery and return of coverages for the patient; and/or validation that the specified coverage is in-force at the date/period specified or 'now' if not specified.</t>
+  </si>
+  <si>
+    <t>To indicate the processing actions requested.</t>
+  </si>
+  <si>
+    <t>A code specifying the types of information being requested.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/eligibilityrequest-purpose|4.0.1</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
+    <t>Intended recipient of products and services</t>
+  </si>
+  <si>
+    <t>The party who is the beneficiary of the supplied coverage and for whom eligibility is sought.</t>
+  </si>
+  <si>
+    <t>1..1.</t>
+  </si>
+  <si>
+    <t>Required to provide context and coverage validation.</t>
+  </si>
+  <si>
+    <t>Request.subject</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.serviced[x]</t>
+  </si>
+  <si>
+    <t>date
+Period</t>
+  </si>
+  <si>
+    <t>Estimated date or dates of service</t>
+  </si>
+  <si>
+    <t>The date or dates when the enclosed suite of services were performed or completed.</t>
+  </si>
+  <si>
+    <t>Required to provide time context for the request.</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Creation date</t>
+  </si>
+  <si>
+    <t>The date when this resource was created.</t>
+  </si>
+  <si>
+    <t>Need to record a timestamp for use by both the recipient and the issuer.</t>
+  </si>
+  <si>
+    <t>Request.authoredOn</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.enterer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Person who created the request.</t>
+  </si>
+  <si>
+    <t>Some jurisdictions require the contact information for personnel completing eligibility requests.</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
+  </si>
+  <si>
+    <t>Party responsible for the request</t>
+  </si>
+  <si>
+    <t>The provider which is responsible for the request.</t>
+  </si>
+  <si>
+    <t>Typically this field would be 1..1 where this party is responsible for the eligibility request but not necessarily professionally responsible for the provision of the individual products and services listed below.</t>
+  </si>
+  <si>
+    <t>Needed to identify the requestor.</t>
+  </si>
+  <si>
+    <t>Request.requester</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.insurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Coverage issuer</t>
+  </si>
+  <si>
+    <t>The Insurer who issued the coverage in question and is the recipient of the request.</t>
+  </si>
+  <si>
+    <t>Need to identify the recipient.</t>
+  </si>
+  <si>
+    <t>Request.performer</t>
+  </si>
+  <si>
+    <t>FiveWs.who</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Servicing facility</t>
+  </si>
+  <si>
+    <t>Facility where the services are intended to be provided.</t>
+  </si>
+  <si>
+    <t>Insurance adjudication can be dependant on where services were delivered.</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.supportingInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Supporting information</t>
+  </si>
+  <si>
+    <t>Additional information codes regarding exceptions, special considerations, the condition, situation, prior or concurrent issues.</t>
+  </si>
+  <si>
+    <t>Often there are multiple jurisdiction specific valuesets which are required.</t>
+  </si>
+  <si>
+    <t>Typically these information codes are required to support the services rendered or the adjudication of the services rendered.</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.supportingInfo.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest.supportingInfo.extension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for coverage eligiblity request</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this coverage eligiblity request.</t>
-  </si>
-  <si>
-    <t>Allows coverage eligibility requests to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.status</t>
-  </si>
-  <si>
-    <t>active | cancelled | draft | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the resource instance.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the resource instance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Desired processing priority</t>
-  </si>
-  <si>
-    <t>When the requestor expects the processor to complete processing.</t>
-  </si>
-  <si>
-    <t>Needed to advise the prossesor on the urgency of the request.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The timeliness with which processing is required: STAT, normal, Deferred.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/process-priority</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.purpose</t>
-  </si>
-  <si>
-    <t>auth-requirements | benefits | discovery | validation</t>
-  </si>
-  <si>
-    <t>Code to specify whether requesting: prior authorization requirements for some service categories or billing codes; benefits for coverages specified or discovered; discovery and return of coverages for the patient; and/or validation that the specified coverage is in-force at the date/period specified or 'now' if not specified.</t>
-  </si>
-  <si>
-    <t>To indicate the processing actions requested.</t>
-  </si>
-  <si>
-    <t>A code specifying the types of information being requested.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/eligibilityrequest-purpose|4.0.1</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient)
-</t>
-  </si>
-  <si>
-    <t>Intended recipient of products and services</t>
-  </si>
-  <si>
-    <t>The party who is the beneficiary of the supplied coverage and for whom eligibility is sought.</t>
-  </si>
-  <si>
-    <t>1..1.</t>
-  </si>
-  <si>
-    <t>Required to provide context and coverage validation.</t>
-  </si>
-  <si>
-    <t>Request.subject</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.serviced[x]</t>
-  </si>
-  <si>
-    <t>date
-Period</t>
-  </si>
-  <si>
-    <t>Estimated date or dates of service</t>
-  </si>
-  <si>
-    <t>The date or dates when the enclosed suite of services were performed or completed.</t>
-  </si>
-  <si>
-    <t>Required to provide time context for the request.</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Creation date</t>
-  </si>
-  <si>
-    <t>The date when this resource was created.</t>
-  </si>
-  <si>
-    <t>Need to record a timestamp for use by both the recipient and the issuer.</t>
-  </si>
-  <si>
-    <t>Request.authoredOn</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.enterer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
-</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Person who created the request.</t>
-  </si>
-  <si>
-    <t>Some jurisdictions require the contact information for personnel completing eligibility requests.</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
-</t>
-  </si>
-  <si>
-    <t>Party responsible for the request</t>
-  </si>
-  <si>
-    <t>The provider which is responsible for the request.</t>
-  </si>
-  <si>
-    <t>Typically this field would be 1..1 where this party is responsible for the eligibility request but not necessarily professionally responsible for the provision of the individual products and services listed below.</t>
-  </si>
-  <si>
-    <t>Needed to identify the requestor.</t>
-  </si>
-  <si>
-    <t>Request.requester</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.insurer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Coverage issuer</t>
-  </si>
-  <si>
-    <t>The Insurer who issued the coverage in question and is the recipient of the request.</t>
-  </si>
-  <si>
-    <t>Need to identify the recipient.</t>
-  </si>
-  <si>
-    <t>Request.performer</t>
-  </si>
-  <si>
-    <t>FiveWs.who</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Servicing facility</t>
-  </si>
-  <si>
-    <t>Facility where the services are intended to be provided.</t>
-  </si>
-  <si>
-    <t>Insurance adjudication can be dependant on where services were delivered.</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.supportingInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Supporting information</t>
-  </si>
-  <si>
-    <t>Additional information codes regarding exceptions, special considerations, the condition, situation, prior or concurrent issues.</t>
-  </si>
-  <si>
-    <t>Often there are multiple jurisdiction specific valuesets which are required.</t>
-  </si>
-  <si>
-    <t>Typically these information codes are required to support the services rendered or the adjudication of the services rendered.</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.supportingInfo.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest.supportingInfo.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1421,7 +1445,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN53"/>
+  <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1432,7 +1456,7 @@
   <cols>
     <col min="1" max="1" width="55.3828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="55.3828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.9609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1440,7 +1464,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="50.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2396,7 +2420,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2415,17 +2439,15 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>79</v>
@@ -2462,16 +2484,14 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -2498,7 +2518,7 @@
         <v>79</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -2506,9 +2526,11 @@
         <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>79</v>
       </c>
@@ -2517,25 +2539,25 @@
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2586,7 +2608,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -2595,7 +2617,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
@@ -2615,10 +2637,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2629,30 +2651,28 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>79</v>
       </c>
@@ -2700,7 +2720,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -2712,13 +2732,13 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -2729,10 +2749,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2740,34 +2760,32 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>79</v>
@@ -2792,13 +2810,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -2816,13 +2834,13 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
@@ -2831,10 +2849,10 @@
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>79</v>
@@ -2845,10 +2863,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2856,7 +2874,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>89</v>
@@ -2865,23 +2883,25 @@
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O13" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -2906,13 +2926,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -2930,10 +2950,10 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>89</v>
@@ -2945,10 +2965,10 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>79</v>
@@ -2959,10 +2979,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2970,10 +2990,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -2982,20 +3002,20 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -3020,13 +3040,13 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3044,13 +3064,13 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
@@ -3059,10 +3079,10 @@
         <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -3073,10 +3093,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3087,7 +3107,7 @@
         <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3099,19 +3119,17 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -3136,13 +3154,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3160,13 +3178,13 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
@@ -3175,10 +3193,10 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
@@ -3189,10 +3207,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3200,7 +3218,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
@@ -3212,20 +3230,22 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3274,10 +3294,10 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>89</v>
@@ -3289,10 +3309,10 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3303,10 +3323,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3314,7 +3334,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -3326,20 +3346,20 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3388,10 +3408,10 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>89</v>
@@ -3403,10 +3423,10 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -3417,10 +3437,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3428,7 +3448,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>89</v>
@@ -3440,20 +3460,20 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -3502,10 +3522,10 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>89</v>
@@ -3517,10 +3537,10 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -3531,10 +3551,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3557,19 +3577,17 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -3618,7 +3636,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -3633,10 +3651,10 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -3647,10 +3665,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3658,7 +3676,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>89</v>
@@ -3670,20 +3688,22 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -3732,10 +3752,10 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>89</v>
@@ -3747,10 +3767,10 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -3761,10 +3781,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3772,7 +3792,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>89</v>
@@ -3784,20 +3804,20 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -3846,10 +3866,10 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>89</v>
@@ -3861,10 +3881,10 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -3875,10 +3895,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3889,7 +3909,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -3901,19 +3921,17 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -3962,13 +3980,13 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
@@ -3980,7 +3998,7 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -3991,10 +4009,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4005,7 +4023,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4017,16 +4035,20 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4074,19 +4096,19 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
@@ -4098,26 +4120,26 @@
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4129,17 +4151,15 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>136</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4194,13 +4214,13 @@
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
@@ -4212,19 +4232,19 @@
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4237,26 +4257,24 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4304,7 +4322,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4328,48 +4346,50 @@
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>132</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4418,19 +4438,19 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
@@ -4442,15 +4462,15 @@
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4473,19 +4493,17 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4534,7 +4552,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>89</v>
@@ -4563,10 +4581,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4574,7 +4592,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
@@ -4589,17 +4607,19 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -4648,10 +4668,10 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>89</v>
@@ -4677,10 +4697,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4691,7 +4711,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -4703,19 +4723,17 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -4764,13 +4782,13 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
@@ -4793,10 +4811,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4807,7 +4825,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -4819,16 +4837,20 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
@@ -4876,19 +4898,19 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -4900,26 +4922,26 @@
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -4931,17 +4953,15 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>136</v>
+        <v>238</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -4996,13 +5016,13 @@
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
@@ -5014,19 +5034,19 @@
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5039,26 +5059,24 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5106,7 +5124,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5130,50 +5148,50 @@
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>132</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>259</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5222,19 +5240,19 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -5246,15 +5264,15 @@
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5262,7 +5280,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>89</v>
@@ -5277,17 +5295,19 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5336,10 +5356,10 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>89</v>
@@ -5365,10 +5385,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5376,7 +5396,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>89</v>
@@ -5391,17 +5411,17 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5450,10 +5470,10 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>89</v>
@@ -5479,10 +5499,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5493,7 +5513,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5505,17 +5525,17 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -5564,13 +5584,13 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
@@ -5593,10 +5613,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5607,7 +5627,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -5619,16 +5639,18 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -5676,19 +5698,19 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -5700,26 +5722,26 @@
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -5731,17 +5753,15 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>136</v>
+        <v>238</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -5796,13 +5816,13 @@
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -5814,19 +5834,19 @@
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5839,26 +5859,24 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -5906,7 +5924,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -5930,19 +5948,19 @@
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>132</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5955,23 +5973,25 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6020,7 +6040,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6032,7 +6052,7 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
@@ -6044,15 +6064,15 @@
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6063,7 +6083,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6075,19 +6095,17 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>163</v>
+        <v>255</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6112,13 +6130,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6136,13 +6154,13 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
@@ -6191,7 +6209,7 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>304</v>
@@ -6228,7 +6246,7 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Y42" t="s" s="2">
         <v>308</v>
@@ -6295,7 +6313,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6307,7 +6325,7 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>311</v>
@@ -6344,7 +6362,7 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Y43" t="s" s="2">
         <v>315</v>
@@ -6374,7 +6392,7 @@
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
@@ -6411,7 +6429,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6423,7 +6441,7 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>318</v>
@@ -6431,9 +6449,11 @@
       <c r="M44" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="N44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6458,13 +6478,13 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -6488,7 +6508,7 @@
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -6497,10 +6517,10 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -6511,10 +6531,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6537,17 +6557,17 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>322</v>
+        <v>204</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -6596,7 +6616,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -6611,10 +6631,10 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -6625,10 +6645,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6651,17 +6671,17 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -6710,7 +6730,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -6739,10 +6759,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6765,17 +6785,17 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -6824,7 +6844,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -6853,10 +6873,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6867,7 +6887,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -6879,17 +6899,17 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>227</v>
+        <v>338</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>334</v>
+        <v>226</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -6938,13 +6958,13 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
@@ -6959,7 +6979,7 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -6967,10 +6987,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6981,7 +7001,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -6993,16 +7013,18 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>234</v>
+        <v>341</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>235</v>
+        <v>342</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7050,19 +7072,19 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>236</v>
+        <v>340</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
@@ -7071,29 +7093,29 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7105,17 +7127,15 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>136</v>
+        <v>238</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N50" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7170,13 +7190,13 @@
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -7188,19 +7208,19 @@
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7213,26 +7233,24 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7280,7 +7298,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7304,48 +7322,50 @@
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>132</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>341</v>
+        <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>344</v>
+        <v>252</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -7370,13 +7390,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -7394,19 +7414,19 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>340</v>
+        <v>253</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -7418,7 +7438,7 @@
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -7437,7 +7457,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -7449,17 +7469,17 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>253</v>
+        <v>348</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -7484,13 +7504,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -7514,7 +7534,7 @@
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -7532,6 +7552,120 @@
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>79</v>
       </c>
     </row>
